--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -2341,7 +2341,7 @@
         <v>35</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>103</v>
@@ -2361,7 +2361,7 @@
         <v>38</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>103</v>
@@ -2381,7 +2381,7 @@
         <v>40</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>103</v>
@@ -2401,7 +2401,7 @@
         <v>42</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>103</v>
@@ -2421,7 +2421,7 @@
         <v>44</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>103</v>
@@ -2441,7 +2441,7 @@
         <v>46</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>103</v>
@@ -2461,7 +2461,7 @@
         <v>48</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>103</v>
@@ -2481,7 +2481,7 @@
         <v>50</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>103</v>
@@ -2501,7 +2501,7 @@
         <v>52</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>103</v>
@@ -2521,7 +2521,7 @@
         <v>54</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>103</v>
@@ -2541,7 +2541,7 @@
         <v>56</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>103</v>
@@ -2561,7 +2561,7 @@
         <v>58</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>103</v>
@@ -2581,7 +2581,7 @@
         <v>60</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>103</v>
@@ -2601,7 +2601,7 @@
         <v>62</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>103</v>
@@ -2621,7 +2621,7 @@
         <v>64</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>103</v>
@@ -2641,7 +2641,7 @@
         <v>66</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>103</v>
@@ -2661,7 +2661,7 @@
         <v>68</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>103</v>
@@ -2681,7 +2681,7 @@
         <v>70</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>103</v>
@@ -2701,7 +2701,7 @@
         <v>72</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>103</v>
@@ -2721,7 +2721,7 @@
         <v>74</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>103</v>
@@ -2741,7 +2741,7 @@
         <v>76</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>103</v>
@@ -2761,7 +2761,7 @@
         <v>78</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>103</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -1890,7 +1890,7 @@
         <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
@@ -1930,7 +1930,7 @@
         <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -278,6 +284,9 @@
     <t>dataMorte</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+  </si>
+  <si>
     <t>Ora</t>
   </si>
   <si>
@@ -405,6 +414,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -499,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -511,6 +523,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="48.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -532,185 +545,215 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -732,2825 +775,3251 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,49 +32,52 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del dichiarante</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del dichiarante</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -776,3250 +779,3250 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -53,6 +53,9 @@
     <t>SI</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -287,7 +290,7 @@
     <t>dataMorte</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
   </si>
   <si>
     <t>Ora</t>
@@ -419,7 +422,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -514,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -526,7 +529,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="48.83984375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="47.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -600,13 +603,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -623,13 +626,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -646,7 +649,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -669,7 +672,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -692,7 +695,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -715,7 +718,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -738,7 +741,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -760,2538 +763,2538 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>123</v>
@@ -3300,44 +3303,44 @@
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>126</v>
@@ -3346,683 +3349,706 @@
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F141" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F143" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F144" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E152" s="2" t="s">
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>26</v>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -305,22 +305,40 @@
     <t>minutoMorte</t>
   </si>
   <si>
-    <t>stato</t>
+    <t>Stato di morte</t>
   </si>
   <si>
     <t>idStatoMorte</t>
   </si>
   <si>
-    <t>provincia</t>
+    <t>Stato di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaMorte</t>
   </si>
   <si>
-    <t>comune</t>
+    <t>Comune di morte</t>
   </si>
   <si>
     <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
   </si>
   <si>
     <t>indirizzo</t>
@@ -517,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2636,10 +2654,10 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2650,88 +2668,88 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2760,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2783,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2806,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2829,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2852,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2875,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2898,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2921,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2944,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2967,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2990,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3013,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3036,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3059,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3082,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3105,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3128,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3151,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3156,19 +3174,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3179,19 +3197,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3202,19 +3220,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3225,16 +3243,16 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>118</v>
@@ -3248,7 +3266,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>119</v>
@@ -3257,7 +3275,7 @@
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>120</v>
@@ -3271,7 +3289,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>121</v>
@@ -3280,7 +3298,7 @@
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>122</v>
@@ -3294,7 +3312,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>123</v>
@@ -3303,10 +3321,10 @@
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3317,19 +3335,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3340,19 +3358,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3363,19 +3381,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3386,22 +3404,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>27</v>
@@ -3409,22 +3427,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>27</v>
@@ -3432,591 +3450,591 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>146</v>
@@ -4030,7 +4048,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>147</v>
@@ -4039,15 +4057,84 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G153" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -194,6 +194,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -413,22 +419,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -535,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1472,19 +1478,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1495,19 +1501,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1518,19 +1524,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1541,19 +1547,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1564,19 +1570,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1587,19 +1593,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1610,19 +1616,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1633,19 +1639,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1656,19 +1662,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1679,19 +1685,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1702,19 +1708,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1725,19 +1731,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1748,19 +1754,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1777,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1800,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1823,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1846,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1869,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1892,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1909,19 +1915,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1932,19 +1938,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1955,19 +1961,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1987,19 @@
         <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>27</v>
@@ -2004,7 +2010,7 @@
         <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -2013,7 +2019,7 @@
         <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2024,22 +2030,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>27</v>
@@ -2047,19 +2053,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2076,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2122,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2139,22 +2145,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>27</v>
@@ -2162,19 +2168,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2191,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>15</v>
@@ -2208,19 +2214,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2231,22 +2237,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>27</v>
@@ -2254,19 +2260,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2277,19 +2283,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2306,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2323,19 +2329,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2352,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2375,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2392,19 +2398,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2415,19 +2421,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2444,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2467,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2487,22 +2493,22 @@
         <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
@@ -2510,22 +2516,22 @@
         <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
@@ -2533,292 +2539,292 @@
         <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2835,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2858,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2881,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2950,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2967,19 +2973,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2990,19 +2996,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3013,19 +3019,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3036,19 +3042,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3065,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3088,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3111,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3128,19 +3134,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3157,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3180,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3203,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3226,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3246,16 +3252,16 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3269,16 +3275,16 @@
         <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3292,16 +3298,16 @@
         <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3315,16 +3321,16 @@
         <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3335,19 +3341,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3358,19 +3364,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3381,19 +3387,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3404,19 +3410,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3427,19 +3433,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3450,19 +3456,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3473,22 +3479,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>27</v>
@@ -3496,22 +3502,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>27</v>
@@ -3519,622 +3525,737 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="G152" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G153" s="2" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E156" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -446,7 +446,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -553,7 +556,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="47.45703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4126,7 +4129,7 @@
         <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
@@ -4146,19 +4149,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4169,19 +4172,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>17</v>
@@ -4192,10 +4195,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
@@ -4204,7 +4207,7 @@
         <v>25</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4215,10 +4218,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
@@ -4227,7 +4230,7 @@
         <v>114</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4238,10 +4241,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4250,7 +4253,7 @@
         <v>114</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -447,9 +447,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4129,7 +4126,7 @@
         <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
@@ -4149,19 +4146,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4172,19 +4169,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>17</v>
@@ -4195,10 +4192,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
@@ -4207,7 +4204,7 @@
         <v>25</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4218,10 +4215,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
@@ -4230,7 +4227,7 @@
         <v>114</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4241,10 +4238,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4253,7 +4250,7 @@
         <v>114</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4126,7 +4129,7 @@
         <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
@@ -4146,19 +4149,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4169,19 +4172,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>17</v>
@@ -4192,10 +4195,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
@@ -4204,7 +4207,7 @@
         <v>25</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4215,10 +4218,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
@@ -4227,7 +4230,7 @@
         <v>114</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4238,10 +4241,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4250,7 +4253,7 @@
         <v>114</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="168">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,6 +276,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -544,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -554,7 +584,7 @@
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2033,22 +2063,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>27</v>
@@ -2056,19 +2086,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2109,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2132,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2155,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2148,22 +2178,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>27</v>
@@ -2171,19 +2201,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2194,22 +2224,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>27</v>
@@ -2217,19 +2247,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2240,22 +2270,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>27</v>
@@ -2263,19 +2293,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2316,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2309,22 +2339,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>27</v>
@@ -2332,19 +2362,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2355,22 +2385,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>27</v>
@@ -2378,19 +2408,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2431,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2454,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2477,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2470,19 +2500,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2523,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2546,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2569,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2562,479 +2592,479 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3045,19 +3075,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3068,19 +3098,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3091,19 +3121,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3114,19 +3144,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3137,19 +3167,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3160,19 +3190,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3183,19 +3213,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3206,19 +3236,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3229,19 +3259,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3252,19 +3282,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3275,19 +3305,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3298,19 +3328,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3321,19 +3351,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3344,19 +3374,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3367,19 +3397,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3390,19 +3420,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3413,19 +3443,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3436,19 +3466,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3459,19 +3489,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3482,19 +3512,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3505,19 +3535,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3528,19 +3558,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3551,22 +3581,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>27</v>
@@ -3574,22 +3604,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>27</v>
@@ -3597,19 +3627,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3620,645 +3650,852 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E159" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G159" s="2" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E161" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -146,6 +146,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -200,13 +206,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -314,199 +320,127 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>Dati Riconoscimento - Dati di morte</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati prodotti</t>
+    <t>Dati Riconoscimento - Generalità discendenti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Figlio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Condizioni dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDichiarante</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
-  </si>
-  <si>
-    <t>Atto Nascita Figlio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>195,196</t>
-  </si>
-  <si>
-    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Condizioni dichiarante</t>
-  </si>
-  <si>
-    <t>evento.datiDichiarante</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Figlio premorto</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -574,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1534,19 +1468,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1557,19 +1491,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1580,19 +1514,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1537,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1560,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1583,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1606,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1629,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1721,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1744,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1790,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1813,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1836,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1859,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1971,19 +1905,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1994,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2017,19 +1951,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2040,19 +1974,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2063,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2043,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2132,19 +2066,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2089,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2178,22 +2112,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>27</v>
@@ -2201,19 +2135,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2224,22 +2158,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>27</v>
@@ -2247,19 +2181,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2270,19 +2204,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2227,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2250,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2339,22 +2273,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>27</v>
@@ -2362,19 +2296,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2385,22 +2319,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>27</v>
@@ -2408,22 +2342,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>27</v>
@@ -2431,19 +2365,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2454,22 +2388,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>27</v>
@@ -2477,19 +2411,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2434,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2523,19 +2457,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2546,19 +2480,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2569,19 +2503,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2592,19 +2526,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2615,19 +2549,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2638,19 +2572,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2661,19 +2595,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2684,19 +2618,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2707,19 +2641,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2730,19 +2664,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2753,19 +2687,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2776,19 +2710,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2802,22 +2736,22 @@
         <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
@@ -2825,22 +2759,22 @@
         <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
@@ -2848,223 +2782,223 @@
         <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3075,19 +3009,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3098,19 +3032,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3121,19 +3055,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3144,19 +3078,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3167,19 +3101,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3190,19 +3124,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3213,19 +3147,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3236,19 +3170,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3259,19 +3193,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3282,19 +3216,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3305,19 +3239,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3328,19 +3262,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3351,19 +3285,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3374,19 +3308,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3397,19 +3331,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3420,19 +3354,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3443,19 +3377,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3466,19 +3400,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3489,19 +3423,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3512,19 +3446,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3535,19 +3469,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3558,19 +3492,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3581,19 +3515,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3604,19 +3538,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3627,22 +3561,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>27</v>
@@ -3650,22 +3584,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>27</v>
@@ -3673,19 +3607,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3696,33 +3630,33 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
@@ -3731,44 +3665,44 @@
         <v>129</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
@@ -3777,67 +3711,67 @@
         <v>129</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
@@ -3846,656 +3780,518 @@
         <v>129</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1491,19 +1497,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1514,19 +1520,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1537,19 +1543,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1560,19 +1566,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1589,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1612,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1635,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1658,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1750,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1773,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1819,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1888,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1911,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1934,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1980,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2003,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2095,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2118,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,22 +2164,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>27</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,22 +2210,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>27</v>
@@ -2227,19 +2233,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2302,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2325,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2342,22 +2348,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>27</v>
@@ -2365,19 +2371,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>15</v>
@@ -2411,19 +2417,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2434,22 +2440,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>27</v>
@@ -2457,19 +2463,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2555,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2578,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2601,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2624,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2647,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2670,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2693,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2716,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2733,19 +2739,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2756,19 +2762,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2779,19 +2785,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2805,16 +2811,16 @@
         <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2828,16 +2834,16 @@
         <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2851,16 +2857,16 @@
         <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2894,19 +2900,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2917,19 +2923,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2963,19 +2969,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2986,19 +2992,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3009,19 +3015,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3032,19 +3038,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3055,19 +3061,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3078,19 +3084,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3101,19 +3107,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3124,19 +3130,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3147,19 +3153,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3170,19 +3176,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3193,19 +3199,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3216,19 +3222,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3239,19 +3245,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3262,19 +3268,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3285,19 +3291,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3308,19 +3314,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3331,19 +3337,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3357,16 +3363,16 @@
         <v>104</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3380,16 +3386,16 @@
         <v>104</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3403,16 +3409,16 @@
         <v>104</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3426,16 +3432,16 @@
         <v>104</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3446,19 +3452,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3469,19 +3475,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3492,19 +3498,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3515,19 +3521,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3538,19 +3544,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3561,22 +3567,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>27</v>
@@ -3584,22 +3590,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>27</v>
@@ -3607,19 +3613,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3630,668 +3636,783 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B164" s="2" t="s">
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E164" s="2" t="s">
+      <c r="E168" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1520,19 +1526,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1543,19 +1549,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1566,19 +1572,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1589,19 +1595,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1612,19 +1618,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1641,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1664,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1687,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1710,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1779,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1825,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1842,19 +1848,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1865,19 +1871,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1894,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1940,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2032,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2101,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2210,22 +2216,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>27</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,22 +2262,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>27</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2354,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2394,22 +2400,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>27</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>15</v>
@@ -2463,19 +2469,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2486,22 +2492,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>27</v>
@@ -2509,19 +2515,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2538,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2561,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2607,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2814,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2831,19 +2837,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2854,19 +2860,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2880,16 +2886,16 @@
         <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2903,16 +2909,16 @@
         <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2926,16 +2932,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3021,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3044,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3084,19 +3090,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3107,19 +3113,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3130,19 +3136,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3153,19 +3159,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3176,19 +3182,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3199,19 +3205,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3222,19 +3228,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3245,19 +3251,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3268,19 +3274,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3291,19 +3297,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3314,19 +3320,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3337,19 +3343,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3360,19 +3366,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3383,19 +3389,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3406,19 +3412,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3429,19 +3435,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3455,16 +3461,16 @@
         <v>106</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3478,16 +3484,16 @@
         <v>106</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3501,16 +3507,16 @@
         <v>106</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3524,16 +3530,16 @@
         <v>106</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3544,19 +3550,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3567,19 +3573,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3590,19 +3596,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3613,19 +3619,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3636,19 +3642,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3659,22 +3665,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>27</v>
@@ -3682,22 +3688,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>27</v>
@@ -3705,19 +3711,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3728,691 +3734,806 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B169" s="2" t="s">
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E169" s="2" t="s">
+      <c r="E173" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -41,19 +41,16 @@
     <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del dichiarante</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Autorizzazione del tribunale</t>
   </si>
   <si>
     <t>Formula</t>
@@ -520,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -606,10 +603,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -629,7 +626,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -652,13 +649,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -675,13 +672,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -698,13 +695,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -721,13 +718,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -744,13 +741,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -766,2975 +763,2975 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>125</v>
@@ -3743,798 +3740,775 @@
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G151" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G153" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="E154" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F154" s="2" t="s">
+      <c r="G154" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="E157" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G157" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="E158" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F158" s="2" t="s">
+      <c r="G158" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="E160" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G160" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="E162" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G162" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="E164" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G164" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="E165" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E165" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F165" s="2" t="s">
+      <c r="G165" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3783,7 +3789,7 @@
         <v>129</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>109</v>
@@ -3792,7 +3798,7 @@
         <v>130</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>26</v>
@@ -3800,605 +3806,605 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F143" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>137</v>
@@ -4407,36 +4413,36 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>26</v>
@@ -4444,22 +4450,22 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>26</v>
@@ -4467,7 +4473,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>144</v>
@@ -4476,10 +4482,10 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4490,16 +4496,16 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>148</v>
@@ -4508,6 +4514,29 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -327,12 +327,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
   </si>
   <si>
     <t>Atto Nascita Figlio</t>
@@ -523,16 +517,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.21875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -2935,16 +2929,16 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2958,16 +2952,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2981,16 +2975,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3004,16 +2998,16 @@
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3027,16 +3021,16 @@
         <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3050,16 +3044,16 @@
         <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3073,16 +3067,16 @@
         <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3096,16 +3090,16 @@
         <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3119,16 +3113,16 @@
         <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3142,19 +3136,19 @@
         <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>26</v>
@@ -3165,19 +3159,19 @@
         <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>26</v>
@@ -3188,19 +3182,19 @@
         <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>26</v>
@@ -3211,16 +3205,16 @@
         <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3231,1312 +3225,714 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -3507,7 +3507,7 @@
         <v>63</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>132</v>
@@ -3530,7 +3530,7 @@
         <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>132</v>
@@ -3539,7 +3539,7 @@
         <v>66</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>134</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -517,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1523,19 +1535,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1558,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1581,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1604,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1627,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1650,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1673,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1696,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1719,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1742,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1765,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1788,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1811,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1834,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1857,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1880,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1903,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1926,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1949,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1972,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1995,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2018,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2041,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2064,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2087,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2110,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2133,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2156,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2179,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2202,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2213,19 +2225,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2236,22 +2248,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>26</v>
@@ -2259,19 +2271,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2294,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2317,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2328,22 +2340,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>26</v>
@@ -2351,19 +2363,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2386,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2409,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2420,22 +2432,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>26</v>
@@ -2443,19 +2455,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2466,22 +2478,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>26</v>
@@ -2489,19 +2501,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2524,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2547,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2558,22 +2570,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>26</v>
@@ -2581,19 +2593,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2604,22 +2616,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>26</v>
@@ -2627,19 +2639,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2662,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2685,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2708,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2731,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2754,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2777,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2800,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2823,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2846,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2869,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2892,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2915,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2938,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2961,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2984,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3007,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3030,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3053,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3076,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3099,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3122,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3133,22 +3145,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>26</v>
@@ -3156,22 +3168,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>26</v>
@@ -3179,22 +3191,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>26</v>
@@ -3202,19 +3214,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3225,714 +3237,898 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="E148" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>26</v>
       </c>
     </row>
